--- a/report-fpsm.xlsx
+++ b/report-fpsm.xlsx
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8052010.48</v>
+        <v>45349707.36</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10839523.6</v>
+        <v>11509994.53</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1466858.94</v>
+        <v>2189636.57</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>6328222.84</v>
+        <v>9247278.289999999</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>10926563.63</v>
+        <v>45254967.54</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>3318298.27</v>
+        <v>4761784.35</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -837,7 +837,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>20617498.73</v>
+        <v>59308444.17</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -845,7 +845,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>20617498.73</v>
+        <v>59308444.17</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>15332054.15</v>
+        <v>16012053.28</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>9576415.539999999</v>
+        <v>14372403.93</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>246454.56</v>
+        <v>263454.56</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>24662015.13</v>
+        <v>30121002.65</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1022,7 +1022,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>24908469.69</v>
+        <v>30384457.21</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1030,7 +1030,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>24908469.69</v>
+        <v>30384457.21</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>66350233.78</v>
+        <v>67792475.23999999</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>67501070.41</v>
+        <v>69506689.48</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>63551431.1</v>
+        <v>63551795.18</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>70299873.09</v>
+        <v>73747369.54000001</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1207,7 +1207,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>133851304.19</v>
+        <v>137299164.72</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1215,7 +1215,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>133851304.19</v>
+        <v>137299164.72</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>101340</v>
+        <v>109840</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>101340</v>
+        <v>109840</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>101340</v>
+        <v>109840</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3035,7 +3035,7 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
-        <v>101340</v>
+        <v>109840</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>101340</v>
+        <v>109840</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>101340</v>
+        <v>109840</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -3453,7 +3453,7 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>101340</v>
+        <v>109840</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3461,7 +3461,7 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="n">
-        <v>101340</v>
+        <v>109840</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1377945.61</v>
+        <v>2040944.74</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>1377945.61</v>
+        <v>2040944.74</v>
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -3595,7 +3595,7 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>1377945.61</v>
+        <v>2040944.74</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3603,7 +3603,7 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="n">
-        <v>1377945.61</v>
+        <v>2040944.74</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>3173049.35</v>
+        <v>1731171.97</v>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
         <v>1</v>
       </c>
       <c r="M122" t="n">
-        <v>-2798290.65</v>
+        <v>-4240168.03</v>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
@@ -4916,7 +4916,7 @@
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>3173049.35</v>
+        <v>1731171.97</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4924,7 +4924,7 @@
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="n">
-        <v>3173049.35</v>
+        <v>1731171.97</v>
       </c>
       <c r="O123" t="n">
         <v>0</v>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>2798290.65</v>
+        <v>4240532.11</v>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>2798290.65</v>
+        <v>4240532.11</v>
       </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
@@ -5062,7 +5062,7 @@
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>2798290.65</v>
+        <v>4240532.11</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5070,7 +5070,7 @@
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="n">
-        <v>2798290.65</v>
+        <v>4240532.11</v>
       </c>
       <c r="O127" t="n">
         <v>0</v>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>364.08</v>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="M135" t="n">
-        <v>-0</v>
+        <v>364.08</v>
       </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
@@ -5393,7 +5393,7 @@
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>364.08</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="n">
-        <v>0</v>
+        <v>364.08</v>
       </c>
       <c r="O136" t="n">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>98934.87</v>
+        <v>91463.07000000001</v>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="M139" t="n">
-        <v>1377945.61</v>
+        <v>2040944.74</v>
       </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
@@ -5550,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="M140" t="n">
-        <v>-1279010.74</v>
+        <v>-1949481.67</v>
       </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
@@ -5570,7 +5570,7 @@
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>98934.87</v>
+        <v>91463.07000000001</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5578,7 +5578,7 @@
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="n">
-        <v>98934.87000000011</v>
+        <v>91463.07000000007</v>
       </c>
       <c r="O141" t="n">
         <v>-0</v>
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>98934.87</v>
+        <v>91463.07000000001</v>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="M144" t="n">
-        <v>1377945.61</v>
+        <v>2040944.74</v>
       </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="M145" t="n">
-        <v>-1279010.74</v>
+        <v>-1949481.67</v>
       </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
@@ -5747,7 +5747,7 @@
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>98934.87</v>
+        <v>91463.07000000001</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5755,7 +5755,7 @@
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="n">
-        <v>98934.87000000011</v>
+        <v>91463.07000000007</v>
       </c>
       <c r="O146" t="n">
         <v>-0</v>
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="M149" t="n">
-        <v>1279010.74</v>
+        <v>1949481.67</v>
       </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="M150" t="n">
-        <v>-1274459.77</v>
+        <v>-1944930.7</v>
       </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="M154" t="n">
-        <v>1279010.74</v>
+        <v>1949481.67</v>
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
@@ -6081,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="M155" t="n">
-        <v>-1274459.77</v>
+        <v>-1944930.7</v>
       </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>1274459.77</v>
+        <v>1944930.7</v>
       </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="M159" t="n">
-        <v>1274459.77</v>
+        <v>1944930.7</v>
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
@@ -6243,7 +6243,7 @@
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>1274459.77</v>
+        <v>1944930.7</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6251,7 +6251,7 @@
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="n">
-        <v>1274459.77</v>
+        <v>1944930.7</v>
       </c>
       <c r="O160" t="n">
         <v>0</v>
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>1274459.77</v>
+        <v>1944930.7</v>
       </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="M163" t="n">
-        <v>1274459.77</v>
+        <v>1944930.7</v>
       </c>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
@@ -6385,7 +6385,7 @@
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>1274459.77</v>
+        <v>1944930.7</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6393,7 +6393,7 @@
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="n">
-        <v>1274459.77</v>
+        <v>1944930.7</v>
       </c>
       <c r="O164" t="n">
         <v>0</v>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="M201" t="n">
-        <v>5971340</v>
+        <v>5971704.08</v>
       </c>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
@@ -7772,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="M202" t="n">
-        <v>-0</v>
+        <v>-364.08</v>
       </c>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>6174020</v>
+        <v>6191020</v>
       </c>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
@@ -7873,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="G205" t="n">
-        <v>-202680</v>
+        <v>-219680</v>
       </c>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>1377945.61</v>
+        <v>2040944.74</v>
       </c>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="M221" t="n">
-        <v>1377945.61</v>
+        <v>2040944.74</v>
       </c>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr"/>
@@ -8532,7 +8532,7 @@
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="n">
-        <v>1377945.61</v>
+        <v>2040944.74</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8540,7 +8540,7 @@
       <c r="L223" t="inlineStr"/>
       <c r="M223" t="inlineStr"/>
       <c r="N223" t="n">
-        <v>1377945.61</v>
+        <v>2040944.74</v>
       </c>
       <c r="O223" t="n">
         <v>0</v>
@@ -25224,7 +25224,7 @@
         <v>0</v>
       </c>
       <c r="G674" t="n">
-        <v>34583288.81</v>
+        <v>36025166.19</v>
       </c>
       <c r="H674" t="inlineStr"/>
       <c r="I674" t="inlineStr"/>
@@ -25308,7 +25308,7 @@
         <v>0</v>
       </c>
       <c r="M676" t="n">
-        <v>34612163.44</v>
+        <v>36040849.32</v>
       </c>
       <c r="N676" t="inlineStr"/>
       <c r="O676" t="inlineStr"/>
@@ -25347,7 +25347,7 @@
         <v>1</v>
       </c>
       <c r="M677" t="n">
-        <v>-28874.63</v>
+        <v>-15683.13</v>
       </c>
       <c r="N677" t="inlineStr"/>
       <c r="O677" t="inlineStr"/>
@@ -25367,7 +25367,7 @@
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr"/>
       <c r="H678" t="n">
-        <v>34583288.81</v>
+        <v>36025166.19</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -25375,7 +25375,7 @@
       <c r="L678" t="inlineStr"/>
       <c r="M678" t="inlineStr"/>
       <c r="N678" t="n">
-        <v>34583288.80999999</v>
+        <v>36025166.19</v>
       </c>
       <c r="O678" t="n">
         <v>0</v>
@@ -34844,7 +34844,7 @@
         <v>0</v>
       </c>
       <c r="G934" t="n">
-        <v>34583288.81</v>
+        <v>36025166.19</v>
       </c>
       <c r="H934" t="inlineStr"/>
       <c r="I934" t="inlineStr"/>
@@ -34922,7 +34922,7 @@
         <v>1</v>
       </c>
       <c r="G936" t="n">
-        <v>-1291502.96</v>
+        <v>-1961973.89</v>
       </c>
       <c r="H936" t="inlineStr"/>
       <c r="I936" t="inlineStr"/>
@@ -35006,7 +35006,7 @@
         <v>0</v>
       </c>
       <c r="M938" t="n">
-        <v>172145.43</v>
+        <v>187951.78</v>
       </c>
       <c r="N938" t="inlineStr"/>
       <c r="O938" t="inlineStr"/>
@@ -35084,7 +35084,7 @@
         <v>0</v>
       </c>
       <c r="M940" t="n">
-        <v>33119640.42</v>
+        <v>33875240.52</v>
       </c>
       <c r="N940" t="inlineStr"/>
       <c r="O940" t="inlineStr"/>
@@ -35143,7 +35143,7 @@
       <c r="F942" t="inlineStr"/>
       <c r="G942" t="inlineStr"/>
       <c r="H942" t="n">
-        <v>33291785.85</v>
+        <v>34063192.3</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -35151,10 +35151,10 @@
       <c r="L942" t="inlineStr"/>
       <c r="M942" t="inlineStr"/>
       <c r="N942" t="n">
-        <v>33291785.85</v>
+        <v>34063192.3</v>
       </c>
       <c r="O942" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="943">
@@ -35185,7 +35185,7 @@
         <v>0</v>
       </c>
       <c r="G943" t="n">
-        <v>33216164.64</v>
+        <v>33981851.39</v>
       </c>
       <c r="H943" t="inlineStr"/>
       <c r="I943" t="inlineStr"/>
@@ -35224,7 +35224,7 @@
         <v>1</v>
       </c>
       <c r="G944" t="n">
-        <v>-28874.63</v>
+        <v>-15683.13</v>
       </c>
       <c r="H944" t="inlineStr"/>
       <c r="I944" t="inlineStr"/>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="M945" t="n">
-        <v>33291785.85</v>
+        <v>34063192.3</v>
       </c>
       <c r="N945" t="inlineStr"/>
       <c r="O945" t="inlineStr"/>
@@ -35503,7 +35503,7 @@
         <v>1</v>
       </c>
       <c r="M951" t="n">
-        <v>-98934.87</v>
+        <v>-91463.07000000001</v>
       </c>
       <c r="N951" t="inlineStr"/>
       <c r="O951" t="inlineStr"/>
@@ -35562,7 +35562,7 @@
       <c r="F953" t="inlineStr"/>
       <c r="G953" t="inlineStr"/>
       <c r="H953" t="n">
-        <v>33187290.01</v>
+        <v>33966168.26</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -35570,7 +35570,7 @@
       <c r="L953" t="inlineStr"/>
       <c r="M953" t="inlineStr"/>
       <c r="N953" t="n">
-        <v>33187290.01</v>
+        <v>33966168.26</v>
       </c>
       <c r="O953" t="n">
         <v>0</v>
@@ -35604,7 +35604,7 @@
         <v>0</v>
       </c>
       <c r="G954" t="n">
-        <v>35669691.64</v>
+        <v>70048333.06999999</v>
       </c>
       <c r="H954" t="inlineStr"/>
       <c r="I954" t="inlineStr"/>
@@ -35682,7 +35682,7 @@
         <v>0</v>
       </c>
       <c r="G956" t="n">
-        <v>83343218.31999999</v>
+        <v>49737227.96</v>
       </c>
       <c r="H956" t="inlineStr"/>
       <c r="I956" t="inlineStr"/>
@@ -35721,7 +35721,7 @@
         <v>1</v>
       </c>
       <c r="G957" t="n">
-        <v>-117376162.35</v>
+        <v>-117428104.97</v>
       </c>
       <c r="H957" t="inlineStr"/>
       <c r="I957" t="inlineStr"/>
@@ -35766,7 +35766,7 @@
         <v>0</v>
       </c>
       <c r="M958" t="n">
-        <v>3059192.56</v>
+        <v>4502678.64</v>
       </c>
       <c r="N958" t="inlineStr"/>
       <c r="O958" t="inlineStr"/>
@@ -35883,7 +35883,7 @@
         <v>1</v>
       </c>
       <c r="M961" t="n">
-        <v>-1422444.95</v>
+        <v>-2145222.58</v>
       </c>
       <c r="N961" t="inlineStr"/>
       <c r="O961" t="inlineStr"/>
@@ -35903,7 +35903,7 @@
       <c r="F962" t="inlineStr"/>
       <c r="G962" t="inlineStr"/>
       <c r="H962" t="n">
-        <v>1636747.609999999</v>
+        <v>2357456.060000002</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -35911,10 +35911,10 @@
       <c r="L962" t="inlineStr"/>
       <c r="M962" t="inlineStr"/>
       <c r="N962" t="n">
-        <v>1636747.61</v>
+        <v>2357456.06</v>
       </c>
       <c r="O962" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963">
@@ -35945,7 +35945,7 @@
         <v>0</v>
       </c>
       <c r="G963" t="n">
-        <v>33216164.64</v>
+        <v>33981851.39</v>
       </c>
       <c r="H963" t="inlineStr"/>
       <c r="I963" t="inlineStr"/>
@@ -35984,7 +35984,7 @@
         <v>1</v>
       </c>
       <c r="G964" t="n">
-        <v>-28874.63</v>
+        <v>-15683.13</v>
       </c>
       <c r="H964" t="inlineStr"/>
       <c r="I964" t="inlineStr"/>
@@ -36497,7 +36497,7 @@
         <v>0</v>
       </c>
       <c r="M977" t="n">
-        <v>2798290.65</v>
+        <v>4240168.03</v>
       </c>
       <c r="N977" t="inlineStr"/>
       <c r="O977" t="inlineStr"/>
@@ -36532,7 +36532,7 @@
         <v>1</v>
       </c>
       <c r="M978" t="n">
-        <v>-1377945.61</v>
+        <v>-2040944.74</v>
       </c>
       <c r="N978" t="inlineStr"/>
       <c r="O978" t="inlineStr"/>
@@ -36856,7 +36856,7 @@
       <c r="F987" t="inlineStr"/>
       <c r="G987" t="inlineStr"/>
       <c r="H987" t="n">
-        <v>33187290.01</v>
+        <v>33966168.26</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -36864,7 +36864,7 @@
       <c r="L987" t="inlineStr"/>
       <c r="M987" t="inlineStr"/>
       <c r="N987" t="n">
-        <v>33187290.01</v>
+        <v>33966168.25999999</v>
       </c>
       <c r="O987" t="n">
         <v>0</v>
@@ -36898,7 +36898,7 @@
         <v>0</v>
       </c>
       <c r="G988" t="n">
-        <v>33216164.64</v>
+        <v>33981851.39</v>
       </c>
       <c r="H988" t="inlineStr"/>
       <c r="I988" t="inlineStr"/>
@@ -36937,7 +36937,7 @@
         <v>1</v>
       </c>
       <c r="G989" t="n">
-        <v>-28874.63</v>
+        <v>-15683.13</v>
       </c>
       <c r="H989" t="inlineStr"/>
       <c r="I989" t="inlineStr"/>
@@ -36982,7 +36982,7 @@
         <v>0</v>
       </c>
       <c r="M990" t="n">
-        <v>33291785.85</v>
+        <v>34063192.3</v>
       </c>
       <c r="N990" t="inlineStr"/>
       <c r="O990" t="inlineStr"/>
@@ -37216,7 +37216,7 @@
         <v>1</v>
       </c>
       <c r="M996" t="n">
-        <v>-98934.87</v>
+        <v>-91463.07000000001</v>
       </c>
       <c r="N996" t="inlineStr"/>
       <c r="O996" t="inlineStr"/>
@@ -37275,7 +37275,7 @@
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
       <c r="H998" t="n">
-        <v>33187290.01</v>
+        <v>33966168.26</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -37283,7 +37283,7 @@
       <c r="L998" t="inlineStr"/>
       <c r="M998" t="inlineStr"/>
       <c r="N998" t="n">
-        <v>33187290.01</v>
+        <v>33966168.26</v>
       </c>
       <c r="O998" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>0</v>
       </c>
       <c r="G999" t="n">
-        <v>98934.87</v>
+        <v>91463.07000000001</v>
       </c>
       <c r="H999" t="inlineStr"/>
       <c r="I999" t="inlineStr"/>
@@ -37401,7 +37401,7 @@
         <v>0</v>
       </c>
       <c r="M1001" t="n">
-        <v>98934.87</v>
+        <v>91463.07000000001</v>
       </c>
       <c r="N1001" t="inlineStr"/>
       <c r="O1001" t="inlineStr"/>
@@ -37538,7 +37538,7 @@
       <c r="F1005" t="inlineStr"/>
       <c r="G1005" t="inlineStr"/>
       <c r="H1005" t="n">
-        <v>98934.87</v>
+        <v>91463.07000000001</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -37546,7 +37546,7 @@
       <c r="L1005" t="inlineStr"/>
       <c r="M1005" t="inlineStr"/>
       <c r="N1005" t="n">
-        <v>98934.87</v>
+        <v>91463.07000000001</v>
       </c>
       <c r="O1005" t="n">
         <v>0</v>

--- a/report-fpsm.xlsx
+++ b/report-fpsm.xlsx
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>49212308.3</v>
+        <v>3538820.44</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>12183255.34</v>
+        <v>28103286.23</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2916132.72</v>
+        <v>901469.58</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>259105.71</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>12310652.77</v>
+        <v>2982000.36</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>45981529.24</v>
+        <v>28179851.11</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>44413.99</v>
+        <v>0</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>6234206.07</v>
+        <v>1381724.78</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -837,7 +837,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>64570802.07</v>
+        <v>32543576.25</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -845,10 +845,10 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>64570802.07000001</v>
+        <v>32543576.25</v>
       </c>
       <c r="O10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>14928347.88</v>
+        <v>18885633.28</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>19216819.68</v>
+        <v>5555938.66</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>283454.56</v>
+        <v>37909.35</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>33861713</v>
+        <v>24403662.59</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1022,7 +1022,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>34145167.56</v>
+        <v>24441571.94</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1030,7 +1030,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>34145167.56</v>
+        <v>24441571.94</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>69273009.78</v>
+        <v>1150819.1</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>71515587.69</v>
+        <v>2702131.75</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>63551795.18</v>
+        <v>0</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>77236802.29000001</v>
+        <v>3852950.85</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1207,7 +1207,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>140788597.47</v>
+        <v>3852950.85</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1215,7 +1215,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>140788597.47</v>
+        <v>3852950.85</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>4550.94</v>
+        <v>6726.29</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>4550.94</v>
+        <v>6726.29</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -1616,7 +1616,7 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>4550.94</v>
+        <v>6726.29</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>4550.94</v>
+        <v>6726.29</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>5971340</v>
+        <v>8907850</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>5971340</v>
+        <v>8907850</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>5971340</v>
+        <v>8907850</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2274,7 +2274,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
-        <v>5971340</v>
+        <v>8907850</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>5971340</v>
+        <v>8907850</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -2723,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>-5971340</v>
+        <v>-8907850</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>5971340</v>
+        <v>8907850</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>5971340</v>
+        <v>8907850</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -2885,7 +2885,7 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>5971340</v>
+        <v>8907850</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
-        <v>5971340</v>
+        <v>8907850</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>119840</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>119840</v>
+        <v>0</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>119840</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3035,7 +3035,7 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
-        <v>119840</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>119840</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>119840</v>
+        <v>0</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -3453,7 +3453,7 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>119840</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3461,7 +3461,7 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="n">
-        <v>119840</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>2702213.32</v>
+        <v>1032023.93</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>2702213.32</v>
+        <v>1032023.93</v>
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -3595,7 +3595,7 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>2702213.32</v>
+        <v>1032023.93</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3603,7 +3603,7 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="n">
-        <v>2702213.32</v>
+        <v>1032023.93</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>42764.56</v>
+        <v>37909.35</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>42764.56</v>
+        <v>37909.35</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -3737,7 +3737,7 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>42764.56</v>
+        <v>37909.35</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3745,7 +3745,7 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="n">
-        <v>42764.56</v>
+        <v>37909.35</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>42764.56</v>
+        <v>37909.35</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>42764.56</v>
+        <v>37909.35</v>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
@@ -4021,7 +4021,7 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>42764.56</v>
+        <v>37909.35</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4029,7 +4029,7 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="n">
-        <v>42764.56</v>
+        <v>37909.35</v>
       </c>
       <c r="O98" t="n">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>42764.56</v>
+        <v>37909.35</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>42764.56</v>
+        <v>37909.35</v>
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
@@ -4163,7 +4163,7 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>42764.56</v>
+        <v>37909.35</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4171,7 +4171,7 @@
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="n">
-        <v>42764.56</v>
+        <v>37909.35</v>
       </c>
       <c r="O102" t="n">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -4305,7 +4305,7 @@
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4313,7 +4313,7 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="n">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="O106" t="n">
         <v>0</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -4447,7 +4447,7 @@
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4455,7 +4455,7 @@
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="n">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="O110" t="n">
         <v>0</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
@@ -4589,7 +4589,7 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4597,7 +4597,7 @@
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="n">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="O114" t="n">
         <v>0</v>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
@@ -4731,7 +4731,7 @@
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4739,7 +4739,7 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="n">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="O118" t="n">
         <v>0</v>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>250805.78</v>
+        <v>7757074.53</v>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>5971340</v>
+        <v>8907850</v>
       </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
         <v>1</v>
       </c>
       <c r="M122" t="n">
-        <v>-5720534.22</v>
+        <v>-1150775.47</v>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
@@ -4916,7 +4916,7 @@
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>250805.78</v>
+        <v>7757074.53</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4924,10 +4924,10 @@
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="n">
-        <v>250805.7800000003</v>
+        <v>7757074.53</v>
       </c>
       <c r="O123" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>5720898.3</v>
+        <v>1150775.47</v>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>5720898.3</v>
+        <v>1150775.47</v>
       </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
@@ -5062,7 +5062,7 @@
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>5720898.3</v>
+        <v>1150775.47</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5070,7 +5070,7 @@
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="n">
-        <v>5720898.3</v>
+        <v>1150775.47</v>
       </c>
       <c r="O127" t="n">
         <v>0</v>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>364.08</v>
+        <v>0</v>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="M135" t="n">
-        <v>364.08</v>
+        <v>-0</v>
       </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
@@ -5393,7 +5393,7 @@
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>364.08</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="n">
-        <v>364.08</v>
+        <v>0</v>
       </c>
       <c r="O136" t="n">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>3269126.68</v>
+        <v>7875826.07</v>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="M139" t="n">
-        <v>3269126.68</v>
+        <v>7875826.07</v>
       </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
@@ -5535,7 +5535,7 @@
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>3269126.68</v>
+        <v>7875826.07</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5543,7 +5543,7 @@
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="n">
-        <v>3269126.68</v>
+        <v>7875826.07</v>
       </c>
       <c r="O140" t="n">
         <v>0</v>
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>79536.42</v>
+        <v>190093.35</v>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
@@ -5657,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="M143" t="n">
-        <v>2702213.32</v>
+        <v>1032023.93</v>
       </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
@@ -5692,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="M144" t="n">
-        <v>-2622676.9</v>
+        <v>-841930.58</v>
       </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
@@ -5712,7 +5712,7 @@
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>79536.42</v>
+        <v>190093.35</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5720,10 +5720,10 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="n">
-        <v>79536.41999999993</v>
+        <v>190093.3500000001</v>
       </c>
       <c r="O145" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="146">
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>79536.42</v>
+        <v>190093.35</v>
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="M148" t="n">
-        <v>2702213.32</v>
+        <v>1032023.93</v>
       </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
@@ -5869,7 +5869,7 @@
         <v>1</v>
       </c>
       <c r="M149" t="n">
-        <v>-2622676.9</v>
+        <v>-841930.58</v>
       </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
@@ -5889,7 +5889,7 @@
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>79536.42</v>
+        <v>190093.35</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5897,10 +5897,10 @@
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="n">
-        <v>79536.41999999993</v>
+        <v>190093.3500000001</v>
       </c>
       <c r="O150" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="151">
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>4550.94</v>
+        <v>17025.88</v>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="M153" t="n">
-        <v>2622676.9</v>
+        <v>841930.58</v>
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
@@ -6046,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="M154" t="n">
-        <v>-2618125.96</v>
+        <v>-824904.7</v>
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
@@ -6066,7 +6066,7 @@
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>4550.94</v>
+        <v>17025.88</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6074,10 +6074,10 @@
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="n">
-        <v>4550.939999999944</v>
+        <v>17025.88</v>
       </c>
       <c r="O155" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="156">
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>4550.94</v>
+        <v>17025.88</v>
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="M158" t="n">
-        <v>2622676.9</v>
+        <v>841930.58</v>
       </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
@@ -6223,7 +6223,7 @@
         <v>1</v>
       </c>
       <c r="M159" t="n">
-        <v>-2618125.96</v>
+        <v>-824904.7</v>
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
@@ -6243,7 +6243,7 @@
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>4550.94</v>
+        <v>17025.88</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6251,10 +6251,10 @@
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="n">
-        <v>4550.939999999944</v>
+        <v>17025.88</v>
       </c>
       <c r="O160" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="161">
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>2618125.96</v>
+        <v>824904.7</v>
       </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="M163" t="n">
-        <v>2618125.96</v>
+        <v>824904.7</v>
       </c>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
@@ -6385,7 +6385,7 @@
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>2618125.96</v>
+        <v>824904.7</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6393,7 +6393,7 @@
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="n">
-        <v>2618125.96</v>
+        <v>824904.7</v>
       </c>
       <c r="O164" t="n">
         <v>0</v>
@@ -6427,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>2618125.96</v>
+        <v>824904.7</v>
       </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
@@ -6507,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="M167" t="n">
-        <v>2618125.96</v>
+        <v>824904.7</v>
       </c>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
@@ -6527,7 +6527,7 @@
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>2618125.96</v>
+        <v>824904.7</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6535,7 +6535,7 @@
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="n">
-        <v>2618125.96</v>
+        <v>824904.7</v>
       </c>
       <c r="O168" t="n">
         <v>0</v>
@@ -6569,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>36350</v>
       </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="M171" t="n">
-        <v>0</v>
+        <v>36350</v>
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
@@ -6669,7 +6669,7 @@
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>36350</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6677,7 +6677,7 @@
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="n">
-        <v>0</v>
+        <v>36350</v>
       </c>
       <c r="O172" t="n">
         <v>0</v>
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>16531.16</v>
+        <v>0</v>
       </c>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="M179" t="n">
-        <v>16531.16</v>
+        <v>0</v>
       </c>
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr"/>
@@ -6953,7 +6953,7 @@
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>16531.16</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6961,7 +6961,7 @@
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="n">
-        <v>16531.16</v>
+        <v>0</v>
       </c>
       <c r="O180" t="n">
         <v>0</v>
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>26233.4</v>
+        <v>1559.35</v>
       </c>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="M183" t="n">
-        <v>26233.4</v>
+        <v>1559.35</v>
       </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
@@ -7095,7 +7095,7 @@
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
-        <v>26233.4</v>
+        <v>1559.35</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7103,7 +7103,7 @@
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="n">
-        <v>26233.4</v>
+        <v>1559.35</v>
       </c>
       <c r="O184" t="n">
         <v>0</v>
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>5971340</v>
+        <v>8907850</v>
       </c>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
@@ -7875,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="M205" t="n">
-        <v>5971704.08</v>
+        <v>8907850</v>
       </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
@@ -7914,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="M206" t="n">
-        <v>-364.08</v>
+        <v>-0</v>
       </c>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr"/>
@@ -7934,7 +7934,7 @@
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="n">
-        <v>5971340</v>
+        <v>8907850</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
       <c r="L207" t="inlineStr"/>
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="n">
-        <v>5971340</v>
+        <v>8907850</v>
       </c>
       <c r="O207" t="n">
         <v>0</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>6211020</v>
+        <v>8907850</v>
       </c>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
@@ -8015,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="G209" t="n">
-        <v>-239680</v>
+        <v>-0</v>
       </c>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="M210" t="n">
-        <v>5971340</v>
+        <v>8907850</v>
       </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
@@ -8119,7 +8119,7 @@
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="n">
-        <v>5971340</v>
+        <v>8907850</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8127,7 +8127,7 @@
       <c r="L212" t="inlineStr"/>
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="n">
-        <v>5971340</v>
+        <v>8907850</v>
       </c>
       <c r="O212" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>2702213.32</v>
+        <v>1032023.93</v>
       </c>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="M225" t="n">
-        <v>2702213.32</v>
+        <v>1032023.93</v>
       </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
@@ -8674,7 +8674,7 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="n">
-        <v>2702213.32</v>
+        <v>1032023.93</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8682,7 +8682,7 @@
       <c r="L227" t="inlineStr"/>
       <c r="M227" t="inlineStr"/>
       <c r="N227" t="n">
-        <v>2702213.32</v>
+        <v>1032023.93</v>
       </c>
       <c r="O227" t="n">
         <v>0</v>
@@ -8716,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>42764.56</v>
+        <v>37909.35</v>
       </c>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>0</v>
       </c>
       <c r="M230" t="n">
-        <v>42764.56</v>
+        <v>37909.35</v>
       </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr"/>
@@ -8859,7 +8859,7 @@
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="n">
-        <v>42764.56</v>
+        <v>37909.35</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8867,7 +8867,7 @@
       <c r="L232" t="inlineStr"/>
       <c r="M232" t="inlineStr"/>
       <c r="N232" t="n">
-        <v>42764.56</v>
+        <v>37909.35</v>
       </c>
       <c r="O232" t="n">
         <v>0</v>
@@ -21296,7 +21296,7 @@
         <v>0</v>
       </c>
       <c r="G568" t="n">
-        <v>53639.67</v>
+        <v>76964.28</v>
       </c>
       <c r="H568" t="inlineStr"/>
       <c r="I568" t="inlineStr"/>
@@ -21380,7 +21380,7 @@
         <v>0</v>
       </c>
       <c r="M570" t="n">
-        <v>53639.67</v>
+        <v>76964.28</v>
       </c>
       <c r="N570" t="inlineStr"/>
       <c r="O570" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
       <c r="F572" t="inlineStr"/>
       <c r="G572" t="inlineStr"/>
       <c r="H572" t="n">
-        <v>53639.67</v>
+        <v>76964.28</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21447,7 +21447,7 @@
       <c r="L572" t="inlineStr"/>
       <c r="M572" t="inlineStr"/>
       <c r="N572" t="n">
-        <v>53639.67</v>
+        <v>76964.28</v>
       </c>
       <c r="O572" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="G678" t="n">
-        <v>37505597.93</v>
+        <v>37842386.82</v>
       </c>
       <c r="H678" t="inlineStr"/>
       <c r="I678" t="inlineStr"/>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="M680" t="n">
-        <v>37511508.85</v>
+        <v>37842386.82</v>
       </c>
       <c r="N680" t="inlineStr"/>
       <c r="O680" t="inlineStr"/>
@@ -25489,7 +25489,7 @@
         <v>1</v>
       </c>
       <c r="M681" t="n">
-        <v>-5910.92</v>
+        <v>-0</v>
       </c>
       <c r="N681" t="inlineStr"/>
       <c r="O681" t="inlineStr"/>
@@ -25509,7 +25509,7 @@
       <c r="F682" t="inlineStr"/>
       <c r="G682" t="inlineStr"/>
       <c r="H682" t="n">
-        <v>37505597.93</v>
+        <v>37842386.82</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25517,7 +25517,7 @@
       <c r="L682" t="inlineStr"/>
       <c r="M682" t="inlineStr"/>
       <c r="N682" t="n">
-        <v>37505597.93</v>
+        <v>37842386.82</v>
       </c>
       <c r="O682" t="n">
         <v>0</v>
@@ -34061,7 +34061,7 @@
         <v>0</v>
       </c>
       <c r="G913" t="n">
-        <v>102.8</v>
+        <v>0</v>
       </c>
       <c r="H913" t="inlineStr"/>
       <c r="I913" t="inlineStr"/>
@@ -34145,7 +34145,7 @@
         <v>0</v>
       </c>
       <c r="M915" t="n">
-        <v>102.8</v>
+        <v>0</v>
       </c>
       <c r="N915" t="inlineStr"/>
       <c r="O915" t="inlineStr"/>
@@ -34204,7 +34204,7 @@
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr"/>
       <c r="H917" t="n">
-        <v>102.8</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -34212,7 +34212,7 @@
       <c r="L917" t="inlineStr"/>
       <c r="M917" t="inlineStr"/>
       <c r="N917" t="n">
-        <v>102.8</v>
+        <v>0</v>
       </c>
       <c r="O917" t="n">
         <v>0</v>
@@ -34986,7 +34986,7 @@
         <v>0</v>
       </c>
       <c r="G938" t="n">
-        <v>37505597.93</v>
+        <v>37842386.82</v>
       </c>
       <c r="H938" t="inlineStr"/>
       <c r="I938" t="inlineStr"/>
@@ -35064,7 +35064,7 @@
         <v>1</v>
       </c>
       <c r="G940" t="n">
-        <v>-2635234.7</v>
+        <v>-824948.33</v>
       </c>
       <c r="H940" t="inlineStr"/>
       <c r="I940" t="inlineStr"/>
@@ -35148,7 +35148,7 @@
         <v>0</v>
       </c>
       <c r="M942" t="n">
-        <v>203081.39</v>
+        <v>249317.17</v>
       </c>
       <c r="N942" t="inlineStr"/>
       <c r="O942" t="inlineStr"/>
@@ -35226,7 +35226,7 @@
         <v>0</v>
       </c>
       <c r="M944" t="n">
-        <v>34667281.84</v>
+        <v>36768121.32</v>
       </c>
       <c r="N944" t="inlineStr"/>
       <c r="O944" t="inlineStr"/>
@@ -35285,7 +35285,7 @@
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
       <c r="H946" t="n">
-        <v>34870363.23</v>
+        <v>37017438.49</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -35293,10 +35293,10 @@
       <c r="L946" t="inlineStr"/>
       <c r="M946" t="inlineStr"/>
       <c r="N946" t="n">
-        <v>34870363.23</v>
+        <v>37017438.49</v>
       </c>
       <c r="O946" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947">
@@ -35327,7 +35327,7 @@
         <v>0</v>
       </c>
       <c r="G947" t="n">
-        <v>34791176.79</v>
+        <v>36772959.26</v>
       </c>
       <c r="H947" t="inlineStr"/>
       <c r="I947" t="inlineStr"/>
@@ -35366,7 +35366,7 @@
         <v>1</v>
       </c>
       <c r="G948" t="n">
-        <v>-5910.92</v>
+        <v>-0</v>
       </c>
       <c r="H948" t="inlineStr"/>
       <c r="I948" t="inlineStr"/>
@@ -35411,7 +35411,7 @@
         <v>0</v>
       </c>
       <c r="M949" t="n">
-        <v>34870363.23</v>
+        <v>37017438.49</v>
       </c>
       <c r="N949" t="inlineStr"/>
       <c r="O949" t="inlineStr"/>
@@ -35489,7 +35489,7 @@
         <v>1</v>
       </c>
       <c r="M951" t="n">
-        <v>-5560.94</v>
+        <v>-18035.88</v>
       </c>
       <c r="N951" t="inlineStr"/>
       <c r="O951" t="inlineStr"/>
@@ -35645,7 +35645,7 @@
         <v>1</v>
       </c>
       <c r="M955" t="n">
-        <v>-79536.42</v>
+        <v>-226443.35</v>
       </c>
       <c r="N955" t="inlineStr"/>
       <c r="O955" t="inlineStr"/>
@@ -35704,7 +35704,7 @@
       <c r="F957" t="inlineStr"/>
       <c r="G957" t="inlineStr"/>
       <c r="H957" t="n">
-        <v>34785265.87</v>
+        <v>36772959.26</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -35712,7 +35712,7 @@
       <c r="L957" t="inlineStr"/>
       <c r="M957" t="inlineStr"/>
       <c r="N957" t="n">
-        <v>34785265.87</v>
+        <v>36772959.26</v>
       </c>
       <c r="O957" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="G958" t="n">
-        <v>70847559.53</v>
+        <v>84022311.26000001</v>
       </c>
       <c r="H958" t="inlineStr"/>
       <c r="I958" t="inlineStr"/>
@@ -35824,7 +35824,7 @@
         <v>0</v>
       </c>
       <c r="G960" t="n">
-        <v>49737227.96</v>
+        <v>56388944.7</v>
       </c>
       <c r="H960" t="inlineStr"/>
       <c r="I960" t="inlineStr"/>
@@ -35863,7 +35863,7 @@
         <v>1</v>
       </c>
       <c r="G961" t="n">
-        <v>-117481405.86</v>
+        <v>-139931000.76</v>
       </c>
       <c r="H961" t="inlineStr"/>
       <c r="I961" t="inlineStr"/>
@@ -35908,7 +35908,7 @@
         <v>0</v>
       </c>
       <c r="M962" t="n">
-        <v>5975100.36</v>
+        <v>1381724.78</v>
       </c>
       <c r="N962" t="inlineStr"/>
       <c r="O962" t="inlineStr"/>
@@ -36025,7 +36025,7 @@
         <v>1</v>
       </c>
       <c r="M965" t="n">
-        <v>-2871718.73</v>
+        <v>-901469.58</v>
       </c>
       <c r="N965" t="inlineStr"/>
       <c r="O965" t="inlineStr"/>
@@ -36045,7 +36045,7 @@
       <c r="F966" t="inlineStr"/>
       <c r="G966" t="inlineStr"/>
       <c r="H966" t="n">
-        <v>3103381.63000001</v>
+        <v>480255.2000000179</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -36053,7 +36053,7 @@
       <c r="L966" t="inlineStr"/>
       <c r="M966" t="inlineStr"/>
       <c r="N966" t="n">
-        <v>3103381.63</v>
+        <v>480255.2000000001</v>
       </c>
       <c r="O966" t="n">
         <v>0</v>
@@ -36087,7 +36087,7 @@
         <v>0</v>
       </c>
       <c r="G967" t="n">
-        <v>34791176.79</v>
+        <v>36772959.26</v>
       </c>
       <c r="H967" t="inlineStr"/>
       <c r="I967" t="inlineStr"/>
@@ -36126,7 +36126,7 @@
         <v>1</v>
       </c>
       <c r="G968" t="n">
-        <v>-5910.92</v>
+        <v>-0</v>
       </c>
       <c r="H968" t="inlineStr"/>
       <c r="I968" t="inlineStr"/>
@@ -36171,7 +36171,7 @@
         <v>0</v>
       </c>
       <c r="M969" t="n">
-        <v>31784486.13</v>
+        <v>36691567.72</v>
       </c>
       <c r="N969" t="inlineStr"/>
       <c r="O969" t="inlineStr"/>
@@ -36405,7 +36405,7 @@
         <v>1</v>
       </c>
       <c r="M975" t="n">
-        <v>-42764.56</v>
+        <v>-37909.35</v>
       </c>
       <c r="N975" t="inlineStr"/>
       <c r="O975" t="inlineStr"/>
@@ -36561,7 +36561,7 @@
         <v>0</v>
       </c>
       <c r="M979" t="n">
-        <v>44413.99</v>
+        <v>0</v>
       </c>
       <c r="N979" t="inlineStr"/>
       <c r="O979" t="inlineStr"/>
@@ -36639,7 +36639,7 @@
         <v>0</v>
       </c>
       <c r="M981" t="n">
-        <v>5720534.22</v>
+        <v>1150775.47</v>
       </c>
       <c r="N981" t="inlineStr"/>
       <c r="O981" t="inlineStr"/>
@@ -36674,7 +36674,7 @@
         <v>1</v>
       </c>
       <c r="M982" t="n">
-        <v>-2702213.32</v>
+        <v>-1032023.93</v>
       </c>
       <c r="N982" t="inlineStr"/>
       <c r="O982" t="inlineStr"/>
@@ -36713,7 +36713,7 @@
         <v>1</v>
       </c>
       <c r="M983" t="n">
-        <v>-44413.99</v>
+        <v>-0</v>
       </c>
       <c r="N983" t="inlineStr"/>
       <c r="O983" t="inlineStr"/>
@@ -36787,7 +36787,7 @@
         <v>0</v>
       </c>
       <c r="M985" t="n">
-        <v>26233.4</v>
+        <v>1559.35</v>
       </c>
       <c r="N985" t="inlineStr"/>
       <c r="O985" t="inlineStr"/>
@@ -36998,7 +36998,7 @@
       <c r="F991" t="inlineStr"/>
       <c r="G991" t="inlineStr"/>
       <c r="H991" t="n">
-        <v>34785265.87</v>
+        <v>36772959.26</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -37006,7 +37006,7 @@
       <c r="L991" t="inlineStr"/>
       <c r="M991" t="inlineStr"/>
       <c r="N991" t="n">
-        <v>34785265.87</v>
+        <v>36772959.26</v>
       </c>
       <c r="O991" t="n">
         <v>0</v>
@@ -37040,7 +37040,7 @@
         <v>0</v>
       </c>
       <c r="G992" t="n">
-        <v>34791176.79</v>
+        <v>36772959.26</v>
       </c>
       <c r="H992" t="inlineStr"/>
       <c r="I992" t="inlineStr"/>
@@ -37079,7 +37079,7 @@
         <v>1</v>
       </c>
       <c r="G993" t="n">
-        <v>-5910.92</v>
+        <v>-0</v>
       </c>
       <c r="H993" t="inlineStr"/>
       <c r="I993" t="inlineStr"/>
@@ -37124,7 +37124,7 @@
         <v>0</v>
       </c>
       <c r="M994" t="n">
-        <v>34870363.23</v>
+        <v>37017438.49</v>
       </c>
       <c r="N994" t="inlineStr"/>
       <c r="O994" t="inlineStr"/>
@@ -37202,7 +37202,7 @@
         <v>1</v>
       </c>
       <c r="M996" t="n">
-        <v>-5560.94</v>
+        <v>-18035.88</v>
       </c>
       <c r="N996" t="inlineStr"/>
       <c r="O996" t="inlineStr"/>
@@ -37358,7 +37358,7 @@
         <v>1</v>
       </c>
       <c r="M1000" t="n">
-        <v>-79536.42</v>
+        <v>-226443.35</v>
       </c>
       <c r="N1000" t="inlineStr"/>
       <c r="O1000" t="inlineStr"/>
@@ -37417,7 +37417,7 @@
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
       <c r="H1002" t="n">
-        <v>34785265.87</v>
+        <v>36772959.26</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -37425,7 +37425,7 @@
       <c r="L1002" t="inlineStr"/>
       <c r="M1002" t="inlineStr"/>
       <c r="N1002" t="n">
-        <v>34785265.87</v>
+        <v>36772959.26</v>
       </c>
       <c r="O1002" t="n">
         <v>0</v>
@@ -37459,7 +37459,7 @@
         <v>0</v>
       </c>
       <c r="G1003" t="n">
-        <v>79536.42</v>
+        <v>226443.35</v>
       </c>
       <c r="H1003" t="inlineStr"/>
       <c r="I1003" t="inlineStr"/>
@@ -37543,7 +37543,7 @@
         <v>0</v>
       </c>
       <c r="M1005" t="n">
-        <v>79536.42</v>
+        <v>190093.35</v>
       </c>
       <c r="N1005" t="inlineStr"/>
       <c r="O1005" t="inlineStr"/>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="M1007" t="n">
-        <v>0</v>
+        <v>36350</v>
       </c>
       <c r="N1007" t="inlineStr"/>
       <c r="O1007" t="inlineStr"/>
@@ -37680,7 +37680,7 @@
       <c r="F1009" t="inlineStr"/>
       <c r="G1009" t="inlineStr"/>
       <c r="H1009" t="n">
-        <v>79536.42</v>
+        <v>226443.35</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -37688,7 +37688,7 @@
       <c r="L1009" t="inlineStr"/>
       <c r="M1009" t="inlineStr"/>
       <c r="N1009" t="n">
-        <v>79536.42</v>
+        <v>226443.35</v>
       </c>
       <c r="O1009" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="G1010" t="n">
-        <v>5560.94</v>
+        <v>18035.88</v>
       </c>
       <c r="H1010" t="inlineStr"/>
       <c r="I1010" t="inlineStr"/>
@@ -37806,7 +37806,7 @@
         <v>0</v>
       </c>
       <c r="M1012" t="n">
-        <v>4550.94</v>
+        <v>17025.88</v>
       </c>
       <c r="N1012" t="inlineStr"/>
       <c r="O1012" t="inlineStr"/>
@@ -38177,7 +38177,7 @@
       <c r="F1022" t="inlineStr"/>
       <c r="G1022" t="inlineStr"/>
       <c r="H1022" t="n">
-        <v>5560.94</v>
+        <v>18035.88</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -38185,7 +38185,7 @@
       <c r="L1022" t="inlineStr"/>
       <c r="M1022" t="inlineStr"/>
       <c r="N1022" t="n">
-        <v>5560.94</v>
+        <v>18035.88</v>
       </c>
       <c r="O1022" t="n">
         <v>0</v>
